--- a/数据整理/stocks/A股/深证主板/002146-荣盛发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002146-荣盛发展.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006038</t>
+          <t>002330</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成景恒混合C</t>
+          <t>兴业聚宝灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>090019</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成景恒混合A</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>000646</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>华润元大量化优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.29</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001264</t>
+          <t>001272</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华恒利灵活配置混合A</t>
+          <t>兴业聚利灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>48.51</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001272</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴业聚利灵活配置混合</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.07</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002327</t>
+          <t>003717</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华恒利灵活配置混合C</t>
+          <t>中银量化精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>48.51</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002330</t>
+          <t>090019</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴业聚宝灵活配置混合</t>
+          <t>大成景恒混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>86.92</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003717</t>
+          <t>001264</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中银量化精选灵活配置混合A</t>
+          <t>银华恒利灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>006038</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>大成景恒混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010484</t>
+          <t>007827</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中银量化精选灵活配置混合C</t>
+          <t>华润元大量化优选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000646</t>
+          <t>002327</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华润元大量化优选混合A</t>
+          <t>银华恒利灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007827</t>
+          <t>010484</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华润元大量化优选混合C</t>
+          <t>中银量化精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +982,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -874,26 +1012,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>161721</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>招商沪深300地产等权重指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -902,26 +1050,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>002330</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>兴业聚宝灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -930,26 +1088,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501072</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100.47</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -958,26 +1126,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001272</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴业聚利灵活配置混合</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -986,26 +1164,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001364</t>
+          <t>001272</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成景润灵活配置混合</t>
+          <t>兴业聚利灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.69</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>001364</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>大成景润灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1042,26 +1240,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002330</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴业聚宝灵活配置混合</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1070,25 +1278,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161721</t>
+          <t>501072</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数</t>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>100.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002146-荣盛发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002146-荣盛发展.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1313,4 +1314,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002146-荣盛发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002146-荣盛发展.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1484,4 +1485,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002146-荣盛发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002146-荣盛发展.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1655,4 +1656,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002146-荣盛发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002146-荣盛发展.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1664,7 +1665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1675,17 +1676,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1695,14 +1716,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1711,14 +1754,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.31</v>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1727,14 +1792,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.09</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -1743,13 +1914,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002146-荣盛发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002146-荣盛发展.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1835,7 +1836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1846,17 +1847,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1866,14 +1887,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1882,14 +1925,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.25</v>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1898,14 +1963,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -1914,14 +2001,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.09</v>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1930,13 +2039,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002146-荣盛发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002146-荣盛发展.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,507 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002330</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴业聚宝灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2280</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000963</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴业多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1838</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000646</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1190</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001272</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴业聚利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1127</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005576</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0369</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003717</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>090019</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成景恒混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001264</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华恒利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>48.51</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006038</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成景恒混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007827</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002327</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银华恒利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>48.51</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010484</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -966,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1017,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161721</t>
+          <t>002906</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数</t>
+          <t>南方中证500量化增强股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>92.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2970</t>
+          <t>0.0815</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1055,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002330</t>
+          <t>001364</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴业聚宝灵活配置混合</t>
+          <t>大成景润灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>26.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2383</t>
+          <t>0.0670</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1093,32 +715,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1813</t>
+          <t>0.0657</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1131,32 +753,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1457</t>
+          <t>0.0493</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1169,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001272</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴业聚利灵活配置混合</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>97.96</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1156</t>
+          <t>0.0276</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1207,112 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001364</t>
+          <t>002907</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成景润灵活配置混合</t>
+          <t>南方中证500量化增强股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22.69</t>
+          <t>92.26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0709</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005576</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>100.47</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1347,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1377,36 +923,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1465</t>
+          <t>0.0234</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1415,36 +961,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001272</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴业聚利灵活配置混合</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0992</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1453,32 +999,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.71</t>
+          <t>97.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0678</t>
+          <t>0.0149</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1687,7 +1233,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1717,36 +1263,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>89.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0234</t>
+          <t>0.1465</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1755,36 +1301,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>001272</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>兴业聚利灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0992</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1793,32 +1339,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.96</t>
+          <t>98.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0149</t>
+          <t>0.0678</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1836,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1857,7 +1403,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1887,36 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002906</t>
+          <t>161721</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票A</t>
+          <t>招商沪深300地产等权重指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>94.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0815</t>
+          <t>0.2970</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1925,36 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001364</t>
+          <t>002330</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成景润灵活配置混合</t>
+          <t>兴业聚宝灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>26.73</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0670</t>
+          <t>0.2383</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1963,32 +1509,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0657</t>
+          <t>0.1813</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2001,32 +1547,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>99.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0493</t>
+          <t>0.1457</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2039,36 +1585,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>001272</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>兴业聚利灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>97.96</t>
+          <t>91.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.1156</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2077,36 +1623,112 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002907</t>
+          <t>001364</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票C</t>
+          <t>大成景润灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>22.69</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0709</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>100.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2120,128 +1742,506 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.72</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>